--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R612a5470f5bc48af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="Rb079c6f1022e429f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="Rb079c6f1022e429f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="Rf627b42eefc84e0d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="Rf627b42eefc84e0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R269b172b05dc4eca"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R269b172b05dc4eca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="Rd11630b269c846ce"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="Rd11630b269c846ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R9a4e25f4999b4657"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R9a4e25f4999b4657"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R8c8ab34c5db2427b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -31,6 +31,7 @@
       </x:c>
       <x:c r="B2" t="str">
         <x:v>
+ Data is missing for the id29017321-40f2-48d1-a6e8-0ee35c04bdd6, 
  Data is missing for the id2e37ac9d-40f2-436e-84af-70aadf01f360, </x:v>
       </x:c>
     </x:row>
